--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1240511.088668273</v>
+        <v>1234789.476700387</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>185.8386997826079</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>155.3197306044664</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>13.62152856464996</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>38.3103278530949</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>59.94338340120333</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>107.0617116175706</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>65.27940717001239</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>14.46389722690867</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>22.35153719005459</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>18.26879610203984</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1663,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>114.6206387726278</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>266.0283717037998</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>182.1010488644752</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>18.26879610203984</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>36.41670903609992</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>18.93482921065027</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>248.6052690916479</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2614,7 +2614,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>209.3584761600172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>79.49505480544802</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.0914199928489</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>61.42978662487899</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>167.6054825066558</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3678,7 +3678,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>115.1269998040535</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>47.41254713315928</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>110.7601806687362</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>91.11971635671394</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>105.007612074443</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1779.584617183058</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1410.622100242646</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1052.356401635896</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E2" t="n">
-        <v>666.5681490376517</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>659.6226482884482</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>241.6588401866351</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,7 +4333,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1779.584617183058</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393.6767897220518</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>393.6767897220518</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>393.6767897220518</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>393.6767897220518</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220518</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>393.6767897220518</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>393.6767897220518</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>393.6767897220518</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>393.6767897220518</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>393.6767897220518</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>393.6767897220518</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1075.055971578407</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C5" t="n">
-        <v>1075.055971578407</v>
+        <v>1710.380556858353</v>
       </c>
       <c r="D5" t="n">
-        <v>1075.055971578407</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E5" t="n">
-        <v>1075.055971578407</v>
+        <v>966.3266056533578</v>
       </c>
       <c r="F5" t="n">
-        <v>664.0700667888</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>246.1062586869868</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.661061815299</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1465.195303554219</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1075.055971578407</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>638.1631929376285</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>638.1631929376285</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>638.1631929376285</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>638.1631929376285</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1704.018810322078</v>
+        <v>1018.50628101231</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>1018.50628101231</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1018.50628101231</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1018.50628101231</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.6186503862</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>2090.6186503862</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>2090.6186503862</v>
+        <v>1018.50628101231</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148976</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>76.52029211334889</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>76.52029211334889</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
@@ -5047,28 +5047,28 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331037</v>
@@ -5077,16 +5077,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5126,28 +5126,28 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5226,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1956.343466104704</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>1751.093193329805</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="14">
@@ -5275,40 +5275,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604874</v>
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>557.6043516563539</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>388.668168728447</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5466,22 +5466,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.343466104704</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>1956.343466104704</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>1751.093193329805</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X16" t="n">
-        <v>1523.103642431788</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>264.4972173763014</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U19" t="n">
-        <v>1184.344982285049</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V19" t="n">
-        <v>1184.344982285049</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W19" t="n">
-        <v>894.9278122480886</v>
+        <v>1006.849042195526</v>
       </c>
       <c r="X19" t="n">
-        <v>666.9382613500712</v>
+        <v>778.8594912975091</v>
       </c>
       <c r="Y19" t="n">
-        <v>446.1456822065411</v>
+        <v>558.0669121539789</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5770,34 +5770,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5837,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,16 +5849,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3084.972127388693</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C22" t="n">
-        <v>3084.972127388693</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D22" t="n">
-        <v>3084.972127388693</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E22" t="n">
-        <v>3084.972127388693</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
-        <v>3084.972127388693</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4586.365838246547</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>4364.599222816073</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>4075.496355941717</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>3820.81186773583</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>3531.394697698869</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>3303.405146800852</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>3266.620592218933</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -5995,46 +5995,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1364.144379432265</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>1897.67628410419</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2877.428556330836</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6092,10 +6092,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>658.1567207524339</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C25" t="n">
-        <v>489.220537824527</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D25" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E25" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F25" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>658.1567207524339</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>658.1567207524339</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>658.1567207524339</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1614.698881814245</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2593.249184644074</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3573.001456870721</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
@@ -6302,43 +6302,43 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.662598458018</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1734.57685067423</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1734.57685067423</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>1734.57685067423</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.103642431788</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y28" t="n">
-        <v>1302.311063288258</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1339.447785386687</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2317.998088216515</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3297.750360443162</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.722831322499</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6651,22 +6651,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972665</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807097</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750057</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107235</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.5269503710301</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C34" t="n">
-        <v>393.5907674431232</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D34" t="n">
-        <v>243.4741280307875</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>175.8590696054126</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6864,13 +6864,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
         <v>1646.12566951853</v>
@@ -6888,22 +6888,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1737.059203485665</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>1737.059203485665</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V34" t="n">
-        <v>1482.374715279778</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W34" t="n">
-        <v>1192.957545242817</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X34" t="n">
-        <v>964.9679943448</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y34" t="n">
-        <v>744.1754152012699</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6937,52 +6937,52 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1797.117834600127</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M35" t="n">
-        <v>2330.649739272052</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N35" t="n">
-        <v>2877.428556330834</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.393206660289</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107235</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3858.203957510972</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C37" t="n">
-        <v>3689.267774583066</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D37" t="n">
-        <v>3539.15113517073</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E37" t="n">
-        <v>3391.238041588337</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>3244.348094090426</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>3076.645257465145</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>4778.05172241972</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>4778.05172241972</v>
+        <v>1505.528657510618</v>
       </c>
       <c r="U37" t="n">
-        <v>4778.05172241972</v>
+        <v>1216.425790636262</v>
       </c>
       <c r="V37" t="n">
-        <v>4778.05172241972</v>
+        <v>961.7413024303746</v>
       </c>
       <c r="W37" t="n">
-        <v>4488.634552382759</v>
+        <v>961.7413024303746</v>
       </c>
       <c r="X37" t="n">
-        <v>4260.645001484742</v>
+        <v>961.7413024303746</v>
       </c>
       <c r="Y37" t="n">
-        <v>4039.852422341212</v>
+        <v>740.9487232868445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
@@ -7192,34 +7192,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1023.336921276364</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="C40" t="n">
-        <v>854.4007383484569</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D40" t="n">
-        <v>704.2840989361212</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E40" t="n">
-        <v>556.371005353728</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7362,22 +7362,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1840.053567312731</v>
       </c>
       <c r="U40" t="n">
-        <v>1956.343466104704</v>
+        <v>1550.950700438374</v>
       </c>
       <c r="V40" t="n">
-        <v>1701.658977898817</v>
+        <v>1296.266212232487</v>
       </c>
       <c r="W40" t="n">
-        <v>1653.767516148151</v>
+        <v>1006.849042195526</v>
       </c>
       <c r="X40" t="n">
-        <v>1425.777965250134</v>
+        <v>778.8594912975091</v>
       </c>
       <c r="Y40" t="n">
-        <v>1204.985386106604</v>
+        <v>558.0669121539789</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1390.197710791128</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M41" t="n">
-        <v>2368.748013620957</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N41" t="n">
-        <v>2915.526830679739</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3858.203957510973</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C43" t="n">
-        <v>3689.267774583067</v>
+        <v>504.4465917311013</v>
       </c>
       <c r="D43" t="n">
-        <v>3539.151135170731</v>
+        <v>354.3299523187655</v>
       </c>
       <c r="E43" t="n">
-        <v>3391.238041588338</v>
+        <v>354.3299523187655</v>
       </c>
       <c r="F43" t="n">
-        <v>3244.348094090427</v>
+        <v>207.4400048208552</v>
       </c>
       <c r="G43" t="n">
-        <v>3076.645257465146</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>2930.428070683004</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>4778.051722419721</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U43" t="n">
-        <v>4778.051722419721</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V43" t="n">
-        <v>4778.051722419721</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W43" t="n">
-        <v>4488.63455238276</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X43" t="n">
-        <v>4260.645001484743</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y43" t="n">
-        <v>4039.852422341213</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>750.1800661608906</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1614.698881814245</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>675.7429179653792</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="C46" t="n">
-        <v>506.8067350374723</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D46" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7836,22 +7836,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1850.275171080014</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>1850.275171080014</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V46" t="n">
-        <v>1595.590682874127</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W46" t="n">
-        <v>1306.173512837166</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X46" t="n">
-        <v>1078.183961939149</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y46" t="n">
-        <v>857.3913827956189</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,19 +9166,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>219.3344627260153</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9643,19 +9643,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>297.8289162490807</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>57.67224444723644</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>103.7862464855133</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,16 +10126,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400226</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10585,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>241.9338129178238</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11062,25 +11062,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>130.0020851999082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>65.21134140930951</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>20.18346650181309</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>104.4219494721158</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>182.1679443159949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>148.3119918879776</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>37.91772924494313</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>70.6633565680072</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>16.35117922901998</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>65.92599321748322</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>2.457529283320326</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>83.3252282894418</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>51.94346676951341</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25602,16 +25602,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>104.4219494721157</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>55.26562759029206</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>83.32522828944178</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>88.71226382522336</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>114.5413372017262</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>957440.0089297245</v>
+        <v>957440.0089297246</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>957440.0089297245</v>
+        <v>957440.0089297246</v>
       </c>
     </row>
     <row r="15">
@@ -26319,16 +26319,16 @@
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>456644.054920031</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="F2" t="n">
-        <v>456644.0549200309</v>
+        <v>456644.0549200308</v>
       </c>
       <c r="G2" t="n">
-        <v>456644.0549200309</v>
+        <v>456644.0549200307</v>
       </c>
       <c r="H2" t="n">
         <v>456644.0549200308</v>
@@ -26346,13 +26346,13 @@
         <v>456644.0549200308</v>
       </c>
       <c r="M2" t="n">
-        <v>456644.0549200308</v>
+        <v>456644.0549200307</v>
       </c>
       <c r="N2" t="n">
         <v>456644.0549200308</v>
       </c>
       <c r="O2" t="n">
-        <v>456644.054920031</v>
+        <v>456644.0549200308</v>
       </c>
       <c r="P2" t="n">
         <v>456644.0549200309</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389446</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
+        <v>25090.7236749938</v>
+      </c>
+      <c r="F4" t="n">
         <v>25090.72367499381</v>
-      </c>
-      <c r="F4" t="n">
-        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="H4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="J4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="M4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="K4" t="n">
-        <v>25090.7236749938</v>
-      </c>
-      <c r="L4" t="n">
-        <v>25090.72367499378</v>
-      </c>
-      <c r="M4" t="n">
-        <v>25090.72367499379</v>
-      </c>
       <c r="N4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="F5" t="n">
+      <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="G5" t="n">
+      <c r="L5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-401792.4455337224</v>
+        <v>-401792.4455337225</v>
       </c>
       <c r="C6" t="n">
         <v>188175.433680822</v>
       </c>
       <c r="D6" t="n">
-        <v>188175.433680822</v>
+        <v>188175.4336808219</v>
       </c>
       <c r="E6" t="n">
-        <v>-392207.6010020833</v>
+        <v>-392879.555904341</v>
       </c>
       <c r="F6" t="n">
-        <v>335169.8129913235</v>
+        <v>334497.8580890654</v>
       </c>
       <c r="G6" t="n">
-        <v>335169.8129913235</v>
+        <v>334497.8580890654</v>
       </c>
       <c r="H6" t="n">
-        <v>335169.8129913233</v>
+        <v>334497.8580890655</v>
       </c>
       <c r="I6" t="n">
-        <v>335169.8129913234</v>
+        <v>334497.8580890656</v>
       </c>
       <c r="J6" t="n">
-        <v>158746.5937987306</v>
+        <v>158074.6388964725</v>
       </c>
       <c r="K6" t="n">
-        <v>335169.8129913234</v>
+        <v>334497.8580890654</v>
       </c>
       <c r="L6" t="n">
-        <v>335169.8129913232</v>
+        <v>334497.8580890653</v>
       </c>
       <c r="M6" t="n">
-        <v>205527.4981523786</v>
+        <v>204855.5432501207</v>
       </c>
       <c r="N6" t="n">
-        <v>335169.8129913235</v>
+        <v>334497.8580890655</v>
       </c>
       <c r="O6" t="n">
-        <v>335169.8129913235</v>
+        <v>334497.8580890654</v>
       </c>
       <c r="P6" t="n">
-        <v>335169.8129913235</v>
+        <v>334497.8580890656</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26767,10 +26767,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503741</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>85.98948845797264</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>138.0840729817492</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>69.71537485361787</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>393.2545171770615</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>285.6124449112622</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>152.2021555488156</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>258.2111801534369</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>341.596638571699</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>165.3680829550286</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>264.1714611465364</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32332,10 +32332,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32569,7 +32569,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33043,7 +33043,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33420,40 +33420,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33572,43 +33572,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33979,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34465,7 +34465,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35424,7 +35424,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,19 +35886,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>727.3874636142344</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35980,10 +35980,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36217,7 +36217,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36363,19 +36363,19 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>753.4190306414129</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>513.2623588395686</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36609,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36691,7 +36691,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>559.3763608778455</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36846,16 +36846,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427827</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282419</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>697.5239273101561</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509647</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.233896612727</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37627,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37782,25 +37782,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>638.0550860881273</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>470.4443441954251</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1234789.476700387</v>
+        <v>1238194.967824836</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095098</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11270972.39713875</v>
+        <v>11270972.39713874</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>295.9408816142891</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>372.5327915267488</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>13.62152856464996</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>149.8856580920123</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>14.46389722690856</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>47.14167849255895</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>65.27940717001239</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>184.9372344744967</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.46389722690867</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.26879610203984</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>114.6206387726278</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>5.26419995599789</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>182.1010488644752</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>18.26879610203984</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>128.1592673228012</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>18.93482921065027</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>215.027676378438</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>70.82764119510642</v>
       </c>
       <c r="F28" t="n">
-        <v>74.75769145492404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>79.49505480544802</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>93.34984542792033</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>167.6054825066558</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>115.1269998040535</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>216.820666082471</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>112.9454894324105</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>110.7601806687362</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.11971635671394</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>107.9221621584908</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1954.241103772296</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.48357412947</v>
+        <v>1585.278586831885</v>
       </c>
       <c r="D2" t="n">
-        <v>1662.48357412947</v>
+        <v>1227.012888225134</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>841.2246356268899</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>430.2387308372824</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2079.343073798764</v>
+        <v>957.4466652737744</v>
       </c>
       <c r="C5" t="n">
-        <v>1710.380556858353</v>
+        <v>957.4466652737744</v>
       </c>
       <c r="D5" t="n">
-        <v>1352.114858251602</v>
+        <v>957.4466652737744</v>
       </c>
       <c r="E5" t="n">
-        <v>966.3266056533578</v>
+        <v>957.4466652737744</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>546.4607604841669</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>532.5373564227579</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>205.3426364587607</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y5" t="n">
-        <v>2465.942913862886</v>
+        <v>1344.046505337896</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4664,7 +4664,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>713.5189870075369</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>563.4023475952011</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>415.489254012808</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1018.50628101231</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.50628101231</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.50628101231</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1018.50628101231</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4801,13 +4801,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224074</v>
@@ -4816,40 +4816,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2334.166315984416</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2080.404530622508</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.645612988121</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.50628101231</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.5189870075369</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>713.5189870075369</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>563.4023475952011</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148976</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622687</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294612</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353394</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,58 +5096,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5275,37 +5275,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193956</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420603</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
         <v>4461.783306331037</v>
@@ -5333,58 +5333,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>557.6043516563539</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.57685067423</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593986</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>901.3723255570255</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>673.3827746590082</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>673.3827746590082</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>351.3014367967928</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>685.1208104866391</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1549.639626139994</v>
       </c>
       <c r="M17" t="n">
-        <v>2215.249704195857</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N17" t="n">
-        <v>2762.028521254639</v>
+        <v>3507.942201196469</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5612,16 +5612,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>558.0669121539789</v>
+        <v>713.5009252592419</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0669121539789</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D19" t="n">
         <v>558.0669121539789</v>
@@ -5664,19 +5664,19 @@
         <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W19" t="n">
-        <v>1006.849042195526</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X19" t="n">
-        <v>778.8594912975091</v>
+        <v>895.1493900894816</v>
       </c>
       <c r="Y19" t="n">
-        <v>558.0669121539789</v>
+        <v>895.1493900894816</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260.9043113423046</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C22" t="n">
-        <v>260.9043113423046</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D22" t="n">
-        <v>260.9043113423046</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1737.059203485665</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1737.059203485665</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>1482.374715279778</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>1192.957545242817</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858347</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9043113423046</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>888.4135721382786</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>260.9043113423046</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6192,7 +6192,7 @@
         <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.9043113423046</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0738540998329</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C28" t="n">
-        <v>171.0738540998329</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D28" t="n">
-        <v>171.0738540998329</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="E28" t="n">
-        <v>171.0738540998329</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.0738540998329</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6469,46 +6469,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6679,25 +6679,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6706,25 +6706,25 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
@@ -6797,16 +6797,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>492.7083461157126</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C34" t="n">
-        <v>323.7721631878057</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D34" t="n">
-        <v>323.7721631878057</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E34" t="n">
-        <v>175.8590696054126</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>895.1493900894825</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>674.3568109459524</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
@@ -6943,46 +6943,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7022,7 +7022,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>559.3002584566048</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C37" t="n">
-        <v>390.3640755286979</v>
+        <v>504.4465917311013</v>
       </c>
       <c r="D37" t="n">
-        <v>390.3640755286979</v>
+        <v>504.4465917311013</v>
       </c>
       <c r="E37" t="n">
-        <v>242.4509819463048</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1505.528657510618</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1216.425790636262</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V37" t="n">
-        <v>961.7413024303746</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W37" t="n">
-        <v>961.7413024303746</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X37" t="n">
-        <v>961.7413024303746</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y37" t="n">
-        <v>740.9487232868445</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551604</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
@@ -7192,34 +7192,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7259,7 +7259,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>558.0669121539789</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C40" t="n">
-        <v>558.0669121539789</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D40" t="n">
-        <v>558.0669121539789</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E40" t="n">
-        <v>410.1538185715858</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1840.053567312731</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1550.950700438374</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1296.266212232487</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>1006.849042195526</v>
+        <v>780.0928376001349</v>
       </c>
       <c r="X40" t="n">
-        <v>778.8594912975091</v>
+        <v>780.0928376001349</v>
       </c>
       <c r="Y40" t="n">
-        <v>558.0669121539789</v>
+        <v>559.3002584566048</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
@@ -7417,46 +7417,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1237.706702364128</v>
+        <v>1085.926319971173</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193956</v>
+        <v>2064.476622801002</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420603</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>673.3827746590082</v>
+        <v>674.3568109459524</v>
       </c>
       <c r="C43" t="n">
-        <v>504.4465917311013</v>
+        <v>674.3568109459524</v>
       </c>
       <c r="D43" t="n">
-        <v>354.3299523187655</v>
+        <v>524.2401715336166</v>
       </c>
       <c r="E43" t="n">
-        <v>354.3299523187655</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F43" t="n">
-        <v>207.4400048208552</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7599,22 +7599,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1445.473983799873</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V43" t="n">
-        <v>1190.789495593986</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W43" t="n">
-        <v>901.3723255570255</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X43" t="n">
-        <v>673.3827746590082</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y43" t="n">
-        <v>673.3827746590082</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001585</v>
@@ -7645,55 +7645,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>750.1800661608906</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1614.698881814245</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2593.249184644074</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3573.001456870721</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.3166934139181</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C46" t="n">
-        <v>413.3805104860112</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D46" t="n">
-        <v>263.2638710736754</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E46" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U46" t="n">
-        <v>1667.240599230347</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.556111024461</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W46" t="n">
-        <v>1123.1389409875</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="X46" t="n">
-        <v>895.1493900894825</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y46" t="n">
-        <v>674.3568109459524</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476828</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>229.154367407183</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>67.53663776704337</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>219.3344627260153</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,16 +9652,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>29.61882225792002</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>170.1140909277297</v>
+        <v>16.8005733590889</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11074,13 +11074,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>133.2530576400246</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.1651665445293</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>65.21134140930951</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>161.9826211426299</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>104.4219494721158</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>128.1651665445293</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>91.38968195336804</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>148.3119918879776</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,7 +24381,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>3.556976973656759</v>
       </c>
     </row>
     <row r="26">
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>75.60632145146275</v>
       </c>
       <c r="F28" t="n">
-        <v>70.6633565680072</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>65.92599321748322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>2.335964134057178</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,10 +25125,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>53.08411721864884</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>51.94346676951341</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>104.4219494721157</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>69.70233225412005</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>33.4884732141587</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>55.26562759029206</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25839,7 +25839,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>88.71226382522336</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>178.6008361781002</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>957440.0089297245</v>
+        <v>957440.0089297246</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>957440.0089297245</v>
+        <v>957440.0089297246</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297243</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
         <v>456644.0549200309</v>
       </c>
       <c r="F2" t="n">
+        <v>456644.0549200309</v>
+      </c>
+      <c r="G2" t="n">
         <v>456644.0549200308</v>
       </c>
-      <c r="G2" t="n">
-        <v>456644.0549200307</v>
-      </c>
       <c r="H2" t="n">
-        <v>456644.0549200308</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="I2" t="n">
         <v>456644.0549200309</v>
       </c>
       <c r="J2" t="n">
+        <v>456644.0549200307</v>
+      </c>
+      <c r="K2" t="n">
+        <v>456644.0549200307</v>
+      </c>
+      <c r="L2" t="n">
         <v>456644.0549200309</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>456644.0549200308</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>456644.0549200307</v>
+      </c>
+      <c r="O2" t="n">
+        <v>456644.0549200309</v>
+      </c>
+      <c r="P2" t="n">
         <v>456644.0549200308</v>
-      </c>
-      <c r="M2" t="n">
-        <v>456644.0549200307</v>
-      </c>
-      <c r="N2" t="n">
-        <v>456644.0549200308</v>
-      </c>
-      <c r="O2" t="n">
-        <v>456644.0549200308</v>
-      </c>
-      <c r="P2" t="n">
-        <v>456644.0549200309</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389446</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="J4" t="n">
+        <v>25090.7236749938</v>
+      </c>
+      <c r="K4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="L4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="M4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="M4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="N4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="O4" t="n">
-        <v>25090.72367499381</v>
-      </c>
       <c r="P4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26487,31 +26487,31 @@
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="M5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="N5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="O5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-401792.4455337225</v>
+        <v>-401792.4455337224</v>
       </c>
       <c r="C6" t="n">
         <v>188175.433680822</v>
       </c>
       <c r="D6" t="n">
-        <v>188175.4336808219</v>
+        <v>188175.433680822</v>
       </c>
       <c r="E6" t="n">
-        <v>-392879.555904341</v>
+        <v>-392274.7964923091</v>
       </c>
       <c r="F6" t="n">
-        <v>334497.8580890654</v>
+        <v>335102.6175010976</v>
       </c>
       <c r="G6" t="n">
-        <v>334497.8580890654</v>
+        <v>335102.6175010975</v>
       </c>
       <c r="H6" t="n">
-        <v>334497.8580890655</v>
+        <v>335102.6175010974</v>
       </c>
       <c r="I6" t="n">
-        <v>334497.8580890656</v>
+        <v>335102.6175010977</v>
       </c>
       <c r="J6" t="n">
-        <v>158074.6388964725</v>
+        <v>158679.3983085046</v>
       </c>
       <c r="K6" t="n">
-        <v>334497.8580890654</v>
+        <v>335102.6175010975</v>
       </c>
       <c r="L6" t="n">
-        <v>334497.8580890653</v>
+        <v>335102.6175010976</v>
       </c>
       <c r="M6" t="n">
-        <v>204855.5432501207</v>
+        <v>205460.3026621527</v>
       </c>
       <c r="N6" t="n">
-        <v>334497.8580890655</v>
+        <v>335102.6175010974</v>
       </c>
       <c r="O6" t="n">
-        <v>334497.8580890654</v>
+        <v>335102.6175010976</v>
       </c>
       <c r="P6" t="n">
-        <v>334497.8580890656</v>
+        <v>335102.6175010976</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503741</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>85.98948845797264</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>41.25137849404621</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>393.2545171770615</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2.045658152848972</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>152.7829238717193</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>171.4429748595358</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>341.596638571699</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>31.51108588316112</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.3680829550286</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>19.88405377167465</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32569,7 +32569,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33043,10 +33043,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33742,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33979,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -33991,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34228,10 +34228,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34465,10 +34465,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.997506289869</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>800.292698040015</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>768.0754832374096</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>258.3236387357559</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>727.3874636142344</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36217,7 +36217,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>440.9775330409149</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36372,16 +36372,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>89.2320208001448</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36846,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37311,7 +37311,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
@@ -37320,7 +37320,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37390,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37627,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37639,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37785,7 +37785,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7042053200619</v>
+        <v>472.3906877514211</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
@@ -37794,13 +37794,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37876,10 +37876,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>470.4443441954251</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
